--- a/biology/Botanique/Parc_de_la_Planchette/Parc_de_la_Planchette.xlsx
+++ b/biology/Botanique/Parc_de_la_Planchette/Parc_de_la_Planchette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de la Planchette est un espace vert de Levallois-Perret[1], datant du début du XVIIIe siècle, et ouvert au public en 1924.
+Le parc de la Planchette est un espace vert de Levallois-Perret, datant du début du XVIIIe siècle, et ouvert au public en 1924.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé entre les rues du Président-Wilson, Paul-Vaillant-Couturier, Jacques-Mazaud et Antonin-Raynaud.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'un lieu-dit.
 </t>
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1806, le comte Jean Bérenger fait l'acquisition d'une propriété au lieu-dit La Planchette[2], alors situé sur le territoire de la commune de Clichy.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1806, le comte Jean Bérenger fait l'acquisition d'une propriété au lieu-dit La Planchette, alors situé sur le territoire de la commune de Clichy.
 Sur ce terrain, figure une dépendance d'un ancien château. Vingt ans plus tard, une des filles de Bérenger acquiert une dépendance de la ferme de Courcelles.
 La famille Bérenger possède alors le plus gros domaine de la région que Nicolas Levallois commence à morceler en 1850.
 Ces expropriations se terminent en 1924, lorsque la maison familiale devient une maison de retraite appelée le Club de la Planchette, et que le parc est ouvert au public.
@@ -608,15 +626,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est orné de plusieurs statues, dont la création s'étend sur plus d'un siècle :
 Statue de Louise Michel, 1906, groupe en bronze du sculpteur Émile Derré
 Monument au capitaine Braun et au maréchal des logis Martin, 1908, d'Edgar Boutry, en hommage au combat de Togbao. Ce monument était installé place Chaptal ; Seul le coq en métal est visible dans le parc.
 Monument à l'aviatrice Maryse Hilsz.
-Buste de Louis Rouquier, œuvre du sculpteur Perrotte. Louis Rouquier fut maire de Levallois de 1919 à 1939[3].
+Buste de Louis Rouquier, œuvre du sculpteur Perrotte. Louis Rouquier fut maire de Levallois de 1919 à 1939.
 Bacchante, œuvre du sculpteur Amélie Colombier.
-Buste de Cécile Vannier, victime en 2009 d'un attentat dans le quartier de Khan el-Khalili, au Caire[4].
+Buste de Cécile Vannier, victime en 2009 d'un attentat dans le quartier de Khan el-Khalili, au Caire.
 </t>
         </is>
       </c>
